--- a/Multicriteria/bin/Debug/Ларичев_данные.xlsx
+++ b/Multicriteria/bin/Debug/Ларичев_данные.xlsx
@@ -26,22 +26,22 @@
     <t>Cr3</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Models count</t>
   </si>
   <si>
     <t>Criteria count</t>
+  </si>
+  <si>
+    <t>Aaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>dddddddddddddd</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,7 +398,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>180</v>
@@ -412,7 +412,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>170</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>160</v>
@@ -440,7 +440,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>150</v>
@@ -467,13 +467,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1">
         <v>3</v>
